--- a/1-Brainstorming/brainstorming_riassunto.xlsx
+++ b/1-Brainstorming/brainstorming_riassunto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luca\Desktop\App_Palestra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luca\Desktop\RepoH\hciProject\1-Brainstorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6F3D7F-1D81-4AAC-9D4E-3245D2CD2237}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F2BB74-0098-40F1-85B0-6474F3ACCB62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -737,7 +737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
       <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
